--- a/HMS/Controller/relation.xlsx
+++ b/HMS/Controller/relation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>sharma</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>kumari</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>sohan</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
 </sst>
 </file>
@@ -400,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +451,9 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
@@ -455,6 +476,9 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
@@ -477,6 +501,9 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -497,6 +524,55 @@
       </c>
       <c r="F4" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35096</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4512</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>33999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/HMS/Controller/relation.xlsx
+++ b/HMS/Controller/relation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\HMS\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>sharma</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>B+</t>
+  </si>
+  <si>
+    <t>kumar</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1122</v>
+        <v>7766</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -459,7 +462,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1122</v>
+        <v>9098</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4512</v>
+        <v>7766</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -508,7 +511,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4512</v>
+        <v>9098</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -531,7 +534,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1122</v>
+        <v>7766</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -554,7 +557,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4512</v>
+        <v>9098</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -563,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>33999</v>
